--- a/chude5_Excel/buoi8/Bai1.xlsx
+++ b/chude5_Excel/buoi8/Bai1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thực hành tin học cơ sở\Baitap_THTHCS THTH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA66154-CAC7-407C-AED6-E93FD1606E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B19F071-05FA-4E5E-9B3E-254FE416848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,16 +156,16 @@
     <t xml:space="preserve">         Còn lại, căn cứ vào ký tự thứ 2 của Mã hàng (định dạng kiểu số) và đối chiếu với Bảng 2</t>
   </si>
   <si>
-    <t xml:space="preserve">          Nếu ký tự cuối thứ 2 của Mã hàng là "K" thì Giá bìa được tính bằng 0.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Nếu số lượng &gt;= 100 hay Ngày bán sau ngày 20/07 thì giảm 10% của Thành tiền</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Còn lại được tính đúng bằng thành tiền</t>
   </si>
   <si>
     <t xml:space="preserve">        Đánh dấu "X" cho mã hàng có Thực thu là lớn nhất (hàm MAX), còn lại để trống (dấu "")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Nếu số lượng &gt;= 100 hay Ngày bán sau ngày 20 thì giảm 10% của Thành tiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Nếu ký tự  thứ 2 của Mã hàng là "K" thì Giá bìa được tính bằng 0.</t>
   </si>
 </sst>
 </file>
@@ -173,8 +173,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -288,7 +288,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -296,7 +296,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,15 +321,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,44 +623,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -674,12 +674,12 @@
       <c r="C3" s="3">
         <v>44022</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -691,12 +691,12 @@
       <c r="C4" s="3">
         <v>44025</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -708,12 +708,12 @@
       <c r="C5" s="3">
         <v>44031</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -725,12 +725,12 @@
       <c r="C6" s="3">
         <v>44030</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -742,12 +742,12 @@
       <c r="C7" s="3">
         <v>44032</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -759,12 +759,12 @@
       <c r="C8" s="3">
         <v>44027</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -776,12 +776,12 @@
       <c r="C9" s="3">
         <v>44033</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -793,46 +793,46 @@
       <c r="C10" s="3">
         <v>44035</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="E12" s="7" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="E12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="8">
         <v>1</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="8">
         <v>3</v>
       </c>
     </row>
@@ -880,38 +880,38 @@
       <c r="C16" s="5">
         <v>60000</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -932,7 +932,7 @@
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -952,12 +952,12 @@
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/chude5_Excel/buoi8/Bai1.xlsx
+++ b/chude5_Excel/buoi8/Bai1.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B19F071-05FA-4E5E-9B3E-254FE416848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D33793-E03D-4EAA-A026-D137A445D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang33" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -162,10 +170,10 @@
     <t xml:space="preserve">        Đánh dấu "X" cho mã hàng có Thực thu là lớn nhất (hàm MAX), còn lại để trống (dấu "")</t>
   </si>
   <si>
-    <t xml:space="preserve">        Nếu số lượng &gt;= 100 hay Ngày bán sau ngày 20 thì giảm 10% của Thành tiền</t>
-  </si>
-  <si>
     <t xml:space="preserve">          Nếu ký tự  thứ 2 của Mã hàng là "K" thì Giá bìa được tính bằng 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Nếu số lượng &gt;= 100 hay Ngày bán sau ngày 20/7/2020 thì giảm 10% của Thành tiền</t>
   </si>
 </sst>
 </file>
@@ -176,7 +184,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +209,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -290,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -321,6 +335,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -602,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,14 +631,14 @@
     <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -674,11 +690,26 @@
       <c r="C3" s="3">
         <v>44022</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="9" t="str">
+        <f>VLOOKUP(LEFT(A3,1),$A$14:$C$16,2,0)</f>
+        <v>Lớn</v>
+      </c>
+      <c r="E3" s="9">
+        <f>VLOOKUP(LEFT(A3,1),$A$14:$C$16,3,0)</f>
+        <v>60000</v>
+      </c>
+      <c r="F3" s="9">
+        <f>IF(MID(A3,2,1)="K",0,HLOOKUP(VALUE(MID(A3,2,1)),$E$13:$H$14,2,0))</f>
+        <v>6500</v>
+      </c>
+      <c r="G3" s="9">
+        <f>(E3+F3)*B3</f>
+        <v>2992500</v>
+      </c>
+      <c r="H3" s="9">
+        <f>IF(OR(B3&gt;=100,DAY(C3)&gt;20),90%*G3,G3)</f>
+        <v>2992500</v>
+      </c>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -691,11 +722,26 @@
       <c r="C4" s="3">
         <v>44025</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="9" t="str">
+        <f t="shared" ref="D4:D10" si="0">VLOOKUP(LEFT(A4,1),$A$14:$C$16,2,0)</f>
+        <v>Lớn</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E10" si="1">VLOOKUP(LEFT(A4,1),$A$14:$C$16,3,0)</f>
+        <v>60000</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F10" si="2">IF(MID(A4,2,1)="K",0,HLOOKUP(VALUE(MID(A4,2,1)),$E$13:$H$14,2,0))</f>
+        <v>8000</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G10" si="3">(E4+F4)*B4</f>
+        <v>20400000</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H10" si="4">IF(OR(B4&gt;=100,DAY(C4)&gt;20),90%*G4,G4)</f>
+        <v>18360000</v>
+      </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -708,11 +754,26 @@
       <c r="C5" s="3">
         <v>44031</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Nhỏ</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="3"/>
+        <v>9545000</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="4"/>
+        <v>8590500</v>
+      </c>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -725,11 +786,26 @@
       <c r="C6" s="3">
         <v>44030</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Nhỏ</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="3"/>
+        <v>875000</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="4"/>
+        <v>875000</v>
+      </c>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -742,11 +818,26 @@
       <c r="C7" s="3">
         <v>44032</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Trung</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="3"/>
+        <v>3600000</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="4"/>
+        <v>3600000</v>
+      </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -759,11 +850,26 @@
       <c r="C8" s="3">
         <v>44027</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Nhỏ</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="3"/>
+        <v>8100000</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="4"/>
+        <v>7290000</v>
+      </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -776,11 +882,26 @@
       <c r="C9" s="3">
         <v>44033</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Trung</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="3"/>
+        <v>10070000</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="4"/>
+        <v>9063000</v>
+      </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -793,11 +914,26 @@
       <c r="C10" s="3">
         <v>44035</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Trung</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="3"/>
+        <v>3862500</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="4"/>
+        <v>3476250</v>
+      </c>
       <c r="I10" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -932,7 +1068,7 @@
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,8 +1087,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
+      <c r="A27" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -980,10 +1116,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
